--- a/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>10.6941122640633</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.5206238484325665</v>
+        <v>-0.520623848432572</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.07551414313663653</v>
@@ -649,7 +649,7 @@
         <v>0.3029582607643657</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.01330855950665319</v>
+        <v>-0.01330855950665333</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.677809586305573</v>
+        <v>-8.940513525477742</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.199249192227324</v>
+        <v>-1.081647438854349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.250088749067185</v>
+        <v>4.9541470444512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.781102705144221</v>
+        <v>-5.123669341305604</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.182185987023738</v>
+        <v>-0.1878572140959551</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.04740731620390731</v>
+        <v>-0.04287284261072024</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1386908481248656</v>
+        <v>0.1314895786709646</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1362031767342065</v>
+        <v>-0.1229509019180949</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.234303903161068</v>
+        <v>1.982142292331224</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.868989898736737</v>
+        <v>9.054282958498147</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.09322431585196</v>
+        <v>15.71681591434118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.395921800302624</v>
+        <v>4.732481192477113</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.05618065492780863</v>
+        <v>0.0473581068201886</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4268259981936814</v>
+        <v>0.4357718610693998</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4998631808332172</v>
+        <v>0.4871583306919652</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1203913354216133</v>
+        <v>0.1316933225195841</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>7.895488918976456</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.223781217600204</v>
+        <v>5.223781217600215</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1207239604380243</v>
@@ -749,7 +749,7 @@
         <v>0.2248579820652886</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1573744385644649</v>
+        <v>0.1573744385644653</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1797175637425888</v>
+        <v>0.4150434067461503</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.872610368920911</v>
+        <v>8.048603623840551</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.655158724949461</v>
+        <v>3.48185498407299</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.105379708811995</v>
+        <v>1.203773377202662</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.004442724343832842</v>
+        <v>0.01076561894412189</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3102409920384188</v>
+        <v>0.3075556083598008</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09627486221715575</v>
+        <v>0.09259702581015777</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03001416874623206</v>
+        <v>0.03236257633352067</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.562035654351524</v>
+        <v>10.11377718727567</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.43465236336133</v>
+        <v>16.43602420362848</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.29910894911491</v>
+        <v>12.22693818846582</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.677554349933015</v>
+        <v>9.629481101770203</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2442899406370959</v>
+        <v>0.2599016686260164</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7503951991211035</v>
+        <v>0.7445108707999266</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3689303005500762</v>
+        <v>0.3748672585675063</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3065539458792987</v>
+        <v>0.317821517003967</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>6.553422009058362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.84805652202126</v>
+        <v>9.848056522021276</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1951325905101625</v>
@@ -849,7 +849,7 @@
         <v>0.1973936071343613</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2808173393299079</v>
+        <v>0.2808173393299085</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.070009751968952</v>
+        <v>0.8286694689588324</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.730460533800447</v>
+        <v>2.72551338057204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.486640165576594</v>
+        <v>1.302828707196646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.670114794073772</v>
+        <v>4.776392229728995</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02947870501941893</v>
+        <v>0.02330660576785453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1131580715437285</v>
+        <v>0.1139535785054222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04098221616210802</v>
+        <v>0.0407176551983351</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.12724631425383</v>
+        <v>0.1160858854731596</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.45491591484338</v>
+        <v>11.37274214571642</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.91828859876894</v>
+        <v>11.76466422203697</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.39408967006349</v>
+        <v>11.55620139317884</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>14.72803944088713</v>
+        <v>14.62719934095958</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3835502360869492</v>
+        <v>0.3845497416339757</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6313618049965651</v>
+        <v>0.6288985407240513</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3794087178305744</v>
+        <v>0.3822578199578059</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4536800500648184</v>
+        <v>0.4560374563178476</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.72121351341031</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12.0710640856515</v>
+        <v>12.07106408565148</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2249025166198046</v>
@@ -949,7 +949,7 @@
         <v>0.3366679269181496</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4242955511397666</v>
+        <v>0.4242955511397659</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.426709570316699</v>
+        <v>5.067361835237063</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.559509920823626</v>
+        <v>4.76647779380017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.273219745692704</v>
+        <v>6.158619561834274</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.916348105059398</v>
+        <v>8.274638591858849</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1199961280262339</v>
+        <v>0.110671268855364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1846528683173262</v>
+        <v>0.1967823340240182</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1843218717267794</v>
+        <v>0.1807296726806912</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2586300584305555</v>
+        <v>0.2740151835037331</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.18360533003418</v>
+        <v>14.13330494031697</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.53548945105938</v>
+        <v>12.28584612846267</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.42327802122509</v>
+        <v>15.6139324123363</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15.85719947743589</v>
+        <v>16.07891411189586</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3462858222200192</v>
+        <v>0.3455983607271087</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6328503991920903</v>
+        <v>0.6212523204585007</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5217543527707076</v>
+        <v>0.5255367871377344</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.610172604136112</v>
+        <v>0.6224987125372907</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>8.904664107187804</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7.046258602336425</v>
+        <v>7.04625860233643</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1233556284741036</v>
@@ -1049,7 +1049,7 @@
         <v>0.263301517937805</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.2106628863444961</v>
+        <v>0.2106628863444963</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.537974500717267</v>
+        <v>2.511172079898007</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.337953553800397</v>
+        <v>6.440207259462238</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.477642798160074</v>
+        <v>6.619494624744394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.827758313235861</v>
+        <v>4.75571331446318</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05969502815604549</v>
+        <v>0.058159477412126</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2665581558322717</v>
+        <v>0.2711324328847171</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1847905290873009</v>
+        <v>0.1876736570513303</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1383600492069679</v>
+        <v>0.1363782803418179</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.490839391346045</v>
+        <v>7.566542392681431</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.73691333552974</v>
+        <v>10.69212447022219</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.21438201627286</v>
+        <v>11.30920737808366</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.28474385201544</v>
+        <v>9.229223922351599</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1871499532167874</v>
+        <v>0.1874608970976979</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4999485972017683</v>
+        <v>0.4945323495564208</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3456150192923582</v>
+        <v>0.3442342992097601</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2863613970255986</v>
+        <v>0.2875142521811306</v>
       </c>
     </row>
     <row r="19">
